--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micko\eclipse-workspace\PetStore\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micko\git\PetStore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8891C581-89C9-41AB-ABE5-3F1E6DF4A37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E893452-B03D-418B-A516-7FFB2AAB3626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,7 +1536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1574,17 +1574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1593,7 +1582,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1626,9 +1615,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2087,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4652,9 +4638,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N52" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
